--- a/step_data.xlsx.xlsx
+++ b/step_data.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iCloud\iCloudDrive\Cursor\Alkoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C242F348-EF35-43D6-8FC8-20F4906060D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F026589-D5CB-4897-AB7E-FC457D1BEEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3795" windowWidth="29955" windowHeight="10560" activeTab="1" xr2:uid="{91EF4CD7-416E-4FA0-BAD9-641E81E7742A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{91EF4CD7-416E-4FA0-BAD9-641E81E7742A}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>孫次郎</t>
   </si>
@@ -76,79 +76,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>４月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
     <t>1月2025</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2月2025</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3月2025</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4月2025</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5月2025</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6月2025</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7月2025</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8月2025</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9月2025</t>
-  </si>
-  <si>
-    <t>10月2025</t>
-  </si>
-  <si>
-    <t>11月2025</t>
   </si>
   <si>
     <t>平均</t>
@@ -223,6 +156,85 @@
   </si>
   <si>
     <t>チーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12月2025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11月2024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3月2025</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4月2025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5月2025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6月2025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7月2025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8月2025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9月2025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10月2025</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11月2025</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -445,7 +457,27 @@
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3405,32 +3437,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27FDE4CF-3F15-4B4D-9262-371BF8696974}" name="テーブル1" displayName="テーブル1" ref="A1:W11" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A1:W11" xr:uid="{27FDE4CF-3F15-4B4D-9262-371BF8696974}"/>
-  <tableColumns count="23">
-    <tableColumn id="2" xr3:uid="{25DCB28C-F7B2-486E-BA6F-A869B0ADEF42}" name="登録名" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{79985402-3A59-4B07-AD83-9C138A405F47}" name="3月2024" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{3420B322-AA0D-4E60-A193-27F5E0159356}" name="４月" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{37386506-C779-4967-AC3C-192FF711C317}" name="5月" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{222E9FB4-91E4-45C7-989A-07A96CAB0042}" name="6月" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{343BD9F3-C103-45AF-8D84-EC3D771AF2F1}" name="7月" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{F983759E-2472-477D-91DE-D83DC771271F}" name="8月" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{6DBBA4F9-1F2B-4DD0-89B8-DC6CB35E4481}" name="9月" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{C5FD2EA3-501B-48A0-8D16-9B7865BBF1C8}" name="10月" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{7D02A6A5-8560-49AB-A098-10F7746D5E50}" name="11月" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{87A5C18A-B0B3-45E7-B82D-894F2769698F}" name="12月" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{6076BA28-AC61-4F0A-919C-8C94130E47DF}" name="1月2025" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{FCC98071-15AE-4B82-B59D-684E5F64CC11}" name="2月2025" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{1F340523-EBA4-452F-9A5A-E71970B3FD37}" name="3月2025" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{02C89677-35B9-484D-8980-6D3B87F84AF8}" name="4月2025" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{FBB6CC57-8050-409F-9565-1EAB5EB3565C}" name="5月2025" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{54D78EE1-3DAA-4112-88DB-073669BE9D1F}" name="6月2025" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{1B2596FC-7115-49EE-9D4B-D47210AF55B0}" name="7月2025" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{F978D13E-7061-452E-8A3B-658EF43AC374}" name="8月2025" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{0FBF5324-D91B-4757-90ED-3A9341EBC40E}" name="9月2025" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{1EAE1C8C-8269-41E4-A16C-64CE293B6119}" name="10月2025" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{D1ED2A41-BB84-4C1F-B99E-5BB19E60761C}" name="11月2025" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{BD27E65B-A755-4FA1-80D5-778984FD6F28}" name="平均" dataDxfId="0" dataCellStyle="桁区切り">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27FDE4CF-3F15-4B4D-9262-371BF8696974}" name="テーブル1" displayName="テーブル1" ref="A1:X11" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:X11" xr:uid="{27FDE4CF-3F15-4B4D-9262-371BF8696974}"/>
+  <tableColumns count="24">
+    <tableColumn id="2" xr3:uid="{25DCB28C-F7B2-486E-BA6F-A869B0ADEF42}" name="登録名" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{79985402-3A59-4B07-AD83-9C138A405F47}" name="3月2024" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{3420B322-AA0D-4E60-A193-27F5E0159356}" name="4月2024" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{37386506-C779-4967-AC3C-192FF711C317}" name="5月2024" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{222E9FB4-91E4-45C7-989A-07A96CAB0042}" name="6月2024" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{343BD9F3-C103-45AF-8D84-EC3D771AF2F1}" name="7月2024" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{F983759E-2472-477D-91DE-D83DC771271F}" name="8月2024" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{6DBBA4F9-1F2B-4DD0-89B8-DC6CB35E4481}" name="9月2024" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{C5FD2EA3-501B-48A0-8D16-9B7865BBF1C8}" name="10月2024" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{7D02A6A5-8560-49AB-A098-10F7746D5E50}" name="11月2024" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{87A5C18A-B0B3-45E7-B82D-894F2769698F}" name="12月2024" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{6076BA28-AC61-4F0A-919C-8C94130E47DF}" name="1月2025" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{FCC98071-15AE-4B82-B59D-684E5F64CC11}" name="2月2025" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{1F340523-EBA4-452F-9A5A-E71970B3FD37}" name="3月2025" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{02C89677-35B9-484D-8980-6D3B87F84AF8}" name="4月2025" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{FBB6CC57-8050-409F-9565-1EAB5EB3565C}" name="5月2025" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{54D78EE1-3DAA-4112-88DB-073669BE9D1F}" name="6月2025" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{1B2596FC-7115-49EE-9D4B-D47210AF55B0}" name="7月2025" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{F978D13E-7061-452E-8A3B-658EF43AC374}" name="8月2025" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{0FBF5324-D91B-4757-90ED-3A9341EBC40E}" name="9月2025" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{1EAE1C8C-8269-41E4-A16C-64CE293B6119}" name="10月2025" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{41A5BA82-E9EB-4A02-BC31-A048083C5168}" name="11月2025" dataDxfId="0">
+      <calculatedColumnFormula>'11月'!AH2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{D1ED2A41-BB84-4C1F-B99E-5BB19E60761C}" name="12月2025" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{BD27E65B-A755-4FA1-80D5-778984FD6F28}" name="平均" dataDxfId="1" dataCellStyle="桁区切り">
       <calculatedColumnFormula>AVERAGE(B2:K2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3735,10 +3770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A173BF-8A83-4E52-A412-5058581D1F88}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3748,12 +3783,12 @@
     <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="9.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="12" max="23" width="9.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3761,72 +3796,75 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="1">
         <v>8616</v>
@@ -3883,14 +3921,18 @@
         <f>'11月'!AH8</f>
         <v>5055</v>
       </c>
-      <c r="W2" s="2">
-        <f>AVERAGE(B2:V2)</f>
-        <v>5274.8888888888887</v>
+      <c r="W2" s="19">
+        <f>'11月'!AH8</f>
+        <v>5055</v>
+      </c>
+      <c r="X2" s="2">
+        <f>AVERAGE(B2:W2)</f>
+        <v>5263.3157894736842</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I3" s="10"/>
       <c r="K3" s="1">
@@ -3912,14 +3954,18 @@
         <f>'11月'!AH9</f>
         <v>4128</v>
       </c>
-      <c r="W3" s="2">
-        <f t="shared" ref="W3:W10" si="0">AVERAGE(B3:V3)</f>
-        <v>2956.6666666666665</v>
+      <c r="W3" s="19">
+        <f>'11月'!AH9</f>
+        <v>4128</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" ref="X3:X10" si="0">AVERAGE(B3:W3)</f>
+        <v>3124</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>8459</v>
@@ -3985,12 +4031,16 @@
         <f>'11月'!AH4</f>
         <v>9405</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="19">
+        <f>'11月'!AH4</f>
+        <v>9405</v>
+      </c>
+      <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>6970.8571428571431</v>
+        <v>7081.5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4058,14 +4108,18 @@
         <f>'11月'!AH5</f>
         <v>6753</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="19">
+        <f>'11月'!AH5</f>
+        <v>6753</v>
+      </c>
+      <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>7099.6190476190477</v>
+        <v>7083.863636363636</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>7748</v>
@@ -4131,14 +4185,18 @@
         <f>'11月'!AH3</f>
         <v>12073</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="19">
+        <f>'11月'!AH3</f>
+        <v>12073</v>
+      </c>
+      <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>7468.4285714285716</v>
+        <v>7677.727272727273</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>12357</v>
@@ -4204,14 +4262,18 @@
         <f>'11月'!AH2</f>
         <v>13365</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="19">
+        <f>'11月'!AH2</f>
+        <v>13365</v>
+      </c>
+      <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>13097.714285714286</v>
+        <v>13109.863636363636</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1835</v>
@@ -4253,14 +4315,18 @@
         <f>'11月'!AH10</f>
         <v>2379</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="19">
+        <f>'11月'!AH10</f>
+        <v>2379</v>
+      </c>
+      <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2784.3846153846152</v>
+        <v>2755.4285714285716</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>9394</v>
@@ -4326,14 +4392,18 @@
         <f>'11月'!AH7</f>
         <v>6129</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="19">
+        <f>'11月'!AH7</f>
+        <v>6129</v>
+      </c>
+      <c r="X9" s="2">
         <f t="shared" si="0"/>
-        <v>6598.1904761904761</v>
+        <v>6576.863636363636</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1">
         <v>2173</v>
@@ -4375,14 +4445,18 @@
         <f>'11月'!AH11</f>
         <v>1990</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="19">
+        <f>'11月'!AH11</f>
+        <v>1990</v>
+      </c>
+      <c r="X10" s="2">
         <f t="shared" si="0"/>
-        <v>2131.6923076923076</v>
+        <v>2121.5714285714284</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ref="B11:N11" si="1">IFERROR(SUBTOTAL(101,B2:B10),"")</f>
@@ -4437,7 +4511,7 @@
         <v>5967</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11:V11" si="2">IFERROR(SUBTOTAL(101,O2:O10),"")</f>
+        <f t="shared" ref="O11:W11" si="2">IFERROR(SUBTOTAL(101,O2:O10),"")</f>
         <v>6054.2222222222226</v>
       </c>
       <c r="P11" s="2">
@@ -4466,13 +4540,17 @@
         <v>6808.5555555555557</v>
       </c>
       <c r="W11" s="2">
-        <f>AVERAGE(B11:V11)</f>
-        <v>6787.7976190476202</v>
+        <f t="shared" si="2"/>
+        <v>6808.5555555555557</v>
+      </c>
+      <c r="X11" s="2">
+        <f>AVERAGE(B11:W11)</f>
+        <v>6788.7860922146647</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B2:W11">
+  <conditionalFormatting sqref="B2:X11">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4495,7 +4573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D798AC-6CD9-4697-B298-810F2402CB4A}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4515,13 +4593,13 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D1" s="18">
         <v>45962</v>
@@ -4614,15 +4692,15 @@
         <v>45991</v>
       </c>
       <c r="AH1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C2" s="13">
         <v>11814</v>
@@ -4733,10 +4811,10 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3" s="13">
         <v>16931</v>
@@ -4847,10 +4925,10 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C4" s="13">
         <v>10325</v>
@@ -4961,7 +5039,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -5075,10 +5153,10 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C6" s="13">
         <v>0</v>
@@ -5129,10 +5207,10 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -5237,10 +5315,10 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -5345,10 +5423,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C9" s="13">
         <v>0</v>
@@ -5425,10 +5503,10 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C10" s="13">
         <v>6754</v>
@@ -5539,10 +5617,10 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C11" s="13">
         <v>3466</v>
@@ -5690,6 +5768,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7fbb197d-847a-4bc6-bd33-6f0cc6ed3112" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2dea3bf7-2633-43c2-9c70-19e6640a7938">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010035B032D9A3856648A8143F6285CEE0DB" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="38aae4a2c752f50a171daba64f3ceb21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2dea3bf7-2633-43c2-9c70-19e6640a7938" xmlns:ns3="7fbb197d-847a-4bc6-bd33-6f0cc6ed3112" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c17ea2fc59357015322f92f10d6418d" ns2:_="" ns3:_="">
     <xsd:import namespace="2dea3bf7-2633-43c2-9c70-19e6640a7938"/>
@@ -5884,27 +5982,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3822D878-C4BA-4392-867E-1794908B37C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7fbb197d-847a-4bc6-bd33-6f0cc6ed3112"/>
+    <ds:schemaRef ds:uri="2dea3bf7-2633-43c2-9c70-19e6640a7938"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7fbb197d-847a-4bc6-bd33-6f0cc6ed3112" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2dea3bf7-2633-43c2-9c70-19e6640a7938">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A36B6C7-7B63-41A9-9020-B1AE6852D143}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E101DBA8-67EA-404D-8B19-11F98135FBA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5921,23 +6018,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A36B6C7-7B63-41A9-9020-B1AE6852D143}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3822D878-C4BA-4392-867E-1794908B37C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7fbb197d-847a-4bc6-bd33-6f0cc6ed3112"/>
-    <ds:schemaRef ds:uri="2dea3bf7-2633-43c2-9c70-19e6640a7938"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/step_data.xlsx.xlsx
+++ b/step_data.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iCloud\iCloudDrive\Cursor\Alkoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F026589-D5CB-4897-AB7E-FC457D1BEEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E8357-92DB-43AB-8766-B495E548FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{91EF4CD7-416E-4FA0-BAD9-641E81E7742A}"/>
+    <workbookView xWindow="6465" yWindow="6075" windowWidth="29955" windowHeight="10560" activeTab="1" xr2:uid="{91EF4CD7-416E-4FA0-BAD9-641E81E7742A}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -3772,7 +3772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A173BF-8A83-4E52-A412-5058581D1F88}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -4573,7 +4573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D798AC-6CD9-4697-B298-810F2402CB4A}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4696,8 +4696,8 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
-        <v>18</v>
+      <c r="A2" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>10</v>
@@ -4924,8 +4924,8 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>18</v>
+      <c r="A4" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
@@ -5152,8 +5152,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
-        <v>18</v>
+      <c r="A6" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>19</v>

--- a/step_data.xlsx.xlsx
+++ b/step_data.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iCloud\iCloudDrive\Cursor\Alkoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E8357-92DB-43AB-8766-B495E548FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6211701C-6023-4FF8-B86D-B70523A2091F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6465" yWindow="6075" windowWidth="29955" windowHeight="10560" activeTab="1" xr2:uid="{91EF4CD7-416E-4FA0-BAD9-641E81E7742A}"/>
   </bookViews>
@@ -4577,7 +4577,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4924,8 +4924,8 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
-        <v>17</v>
+      <c r="A4" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>

--- a/step_data.xlsx.xlsx
+++ b/step_data.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iCloud\iCloudDrive\Cursor\Alkoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6211701C-6023-4FF8-B86D-B70523A2091F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C41DDA-5B52-410A-B373-2B6F29F841BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6465" yWindow="6075" windowWidth="29955" windowHeight="10560" activeTab="1" xr2:uid="{91EF4CD7-416E-4FA0-BAD9-641E81E7742A}"/>
   </bookViews>
@@ -4571,13 +4571,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D798AC-6CD9-4697-B298-810F2402CB4A}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4591,7 +4591,7 @@
     <col min="36" max="40" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>13365</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>12073</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
@@ -5037,9 +5037,9 @@
         <v>9405</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>18</v>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -5151,9 +5151,9 @@
         <v>6753</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
-        <v>17</v>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>19</v>
@@ -5205,9 +5205,9 @@
         <v>6714</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
-        <v>18</v>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
@@ -5313,9 +5313,9 @@
         <v>6129</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>6</v>
@@ -5421,9 +5421,9 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
-        <v>18</v>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>7</v>
@@ -5501,7 +5501,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
@@ -5615,9 +5615,9 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
-        <v>18</v>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>13</v>
@@ -5727,6 +5727,18 @@
       <c r="AH11" s="17" cm="1">
         <f t="array" ref="AH11">LOOKUP(2,1/(ISNUMBER(C11:AG11)),C11:AG11)</f>
         <v>1990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AI14" s="17">
+        <f>AVERAGE(AH2,AH5,AH7,AH9,AH11)</f>
+        <v>6473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AI15" s="17">
+        <f>AVERAGE(AH3,AH4,AH6,AH8,AH10)</f>
+        <v>7125.2</v>
       </c>
     </row>
   </sheetData>

--- a/step_data.xlsx.xlsx
+++ b/step_data.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iCloud\iCloudDrive\Cursor\Alkoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C41DDA-5B52-410A-B373-2B6F29F841BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B86A5-C45D-45BA-822D-8795D5E60D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6465" yWindow="6075" windowWidth="29955" windowHeight="10560" activeTab="1" xr2:uid="{91EF4CD7-416E-4FA0-BAD9-641E81E7742A}"/>
   </bookViews>
@@ -4577,7 +4577,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI16" sqref="AI16"/>
+      <selection pane="bottomRight" activeCell="AJ14" sqref="AI14:AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4924,8 +4924,8 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>18</v>
+      <c r="A4" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
@@ -5038,8 +5038,8 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A5" s="15" t="s">
-        <v>17</v>
+      <c r="A5" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -5152,8 +5152,8 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
-        <v>18</v>
+      <c r="A6" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>19</v>
@@ -5206,8 +5206,8 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
+      <c r="A7" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
@@ -5314,8 +5314,8 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
-        <v>18</v>
+      <c r="A8" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>6</v>
@@ -5422,8 +5422,8 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
+      <c r="A9" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>7</v>
@@ -5502,8 +5502,8 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
-        <v>18</v>
+      <c r="A10" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
@@ -5616,8 +5616,8 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
-        <v>17</v>
+      <c r="A11" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>13</v>
@@ -5730,16 +5730,10 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="AI14" s="17">
-        <f>AVERAGE(AH2,AH5,AH7,AH9,AH11)</f>
-        <v>6473</v>
-      </c>
+      <c r="AI14" s="17"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="AI15" s="17">
-        <f>AVERAGE(AH3,AH4,AH6,AH8,AH10)</f>
-        <v>7125.2</v>
-      </c>
+      <c r="AI15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/step_data.xlsx.xlsx
+++ b/step_data.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iCloud\iCloudDrive\Cursor\Alkoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B86A5-C45D-45BA-822D-8795D5E60D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AFAC36-A429-48C3-B527-2BC73247997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6465" yWindow="6075" windowWidth="29955" windowHeight="10560" activeTab="1" xr2:uid="{91EF4CD7-416E-4FA0-BAD9-641E81E7742A}"/>
   </bookViews>
@@ -139,12 +139,6 @@
     <t>登録名</t>
   </si>
   <si>
-    <t>うさぎさんチーム</t>
-  </si>
-  <si>
-    <t>かめさんチーム</t>
-  </si>
-  <si>
     <t>かがやん</t>
   </si>
   <si>
@@ -237,6 +231,20 @@
     <t>11月2025</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>南チーム</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北チーム</t>
+    <rPh sb="0" eb="1">
+      <t>キタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +301,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -390,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +463,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3796,31 +3813,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -3829,34 +3846,34 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="W1" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>5</v>
@@ -4577,7 +4594,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ14" sqref="AI14:AJ15"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4593,7 +4610,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -4692,12 +4709,12 @@
         <v>45991</v>
       </c>
       <c r="AH1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>10</v>
@@ -4811,9 +4828,9 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="13">
@@ -4924,10 +4941,10 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="13">
@@ -5038,8 +5055,8 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>18</v>
+      <c r="A5" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -5153,10 +5170,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="13">
         <v>0</v>
@@ -5207,9 +5224,9 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="13"/>
@@ -5315,7 +5332,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>6</v>
@@ -5422,8 +5439,8 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
-        <v>18</v>
+      <c r="A9" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>7</v>
@@ -5502,10 +5519,10 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="13">
@@ -5617,9 +5634,9 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="13">

--- a/step_data.xlsx.xlsx
+++ b/step_data.xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iCloud\iCloudDrive\Cursor\Alkoo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e189142475a5b38f/CURSOR/Alkoo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473DBDE-0467-4BE0-8395-9F06306A6640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C473DBDE-0467-4BE0-8395-9F06306A6640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A69B5872-1358-4DAB-875B-8BD31D17D813}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{80A7368D-0987-4F93-836C-3B46FCE69545}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{80A7368D-0987-4F93-836C-3B46FCE69545}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -3091,6 +3091,12 @@
                 <c:pt idx="2">
                   <c:v>7328</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>7998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8790</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3198,6 +3204,12 @@
                 <c:pt idx="2">
                   <c:v>17885</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>15789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15391</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3292,6 +3304,12 @@
                 <c:pt idx="2">
                   <c:v>7736</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>7493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3386,6 +3404,12 @@
                 <c:pt idx="2">
                   <c:v>8418</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6660</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5740</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3480,6 +3504,12 @@
                 <c:pt idx="2">
                   <c:v>5842</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>7425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7091</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3574,6 +3604,12 @@
                 <c:pt idx="2">
                   <c:v>6090</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4936</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3668,6 +3704,12 @@
                 <c:pt idx="2">
                   <c:v>10333</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>9222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9135</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3848,6 +3890,12 @@
                   <c:v>2463</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2463</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2463</c:v>
                 </c:pt>
               </c:numCache>
@@ -3956,6 +4004,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,7 +5699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A173BF-8A83-4E52-A412-5058581D1F88}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5799,11 +5853,11 @@
       </c>
       <c r="W2" s="19">
         <f>'12月'!AH8</f>
-        <v>10333</v>
+        <v>9135</v>
       </c>
       <c r="X2" s="2">
         <f>AVERAGE(B2:W2)</f>
-        <v>5541.105263157895</v>
+        <v>5478.0526315789475</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.4">
@@ -5909,11 +5963,11 @@
       </c>
       <c r="W4" s="19">
         <f>'12月'!AH4</f>
-        <v>7736</v>
+        <v>9106</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>7004.590909090909</v>
+        <v>7066.863636363636</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
@@ -5986,11 +6040,11 @@
       </c>
       <c r="W5" s="19">
         <f>'12月'!AH5</f>
-        <v>8418</v>
+        <v>5740</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>7175.272727272727</v>
+        <v>7053.545454545455</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
@@ -6063,11 +6117,11 @@
       </c>
       <c r="W6" s="19">
         <f>'12月'!AH3</f>
-        <v>17885</v>
+        <v>15391</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>7944.818181818182</v>
+        <v>7831.454545454545</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
@@ -6140,11 +6194,11 @@
       </c>
       <c r="W7" s="19">
         <f>'12月'!AH2</f>
-        <v>7328</v>
+        <v>8790</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>12831.181818181818</v>
+        <v>12897.636363636364</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
@@ -6270,11 +6324,11 @@
       </c>
       <c r="W9" s="19">
         <f>'12月'!AH7</f>
-        <v>6090</v>
+        <v>6976</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="0"/>
-        <v>6575.090909090909</v>
+        <v>6615.363636363636</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
@@ -6323,11 +6377,11 @@
       </c>
       <c r="W10" s="19">
         <f>'12月'!AH11</f>
-        <v>1783</v>
+        <v>1888</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="0"/>
-        <v>2116.7857142857142</v>
+        <v>2124.2857142857142</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
@@ -6417,11 +6471,11 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" si="2"/>
-        <v>6892.8888888888887</v>
+        <v>6609.8888888888887</v>
       </c>
       <c r="X11" s="2">
         <f>AVERAGE(B11:W11)</f>
-        <v>6795.2675736961455</v>
+        <v>6781.7913832199547</v>
       </c>
     </row>
   </sheetData>
@@ -7668,8 +7722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C3C389-DF96-44D4-A685-62AE24C5DF52}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7803,8 +7857,12 @@
       <c r="E2" s="13">
         <v>7328</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="13">
+        <v>7998</v>
+      </c>
+      <c r="G2" s="13">
+        <v>8790</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -7833,7 +7891,7 @@
       <c r="AG2" s="14"/>
       <c r="AH2" s="17" cm="1">
         <f t="array" ref="AH2">LOOKUP(2,1/(ISNUMBER(C2:AG2)),C2:AG2)</f>
-        <v>7328</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.4">
@@ -7852,8 +7910,12 @@
       <c r="E3" s="13">
         <v>17885</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="13">
+        <v>15789</v>
+      </c>
+      <c r="G3" s="13">
+        <v>15391</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -7882,7 +7944,7 @@
       <c r="AG3" s="14"/>
       <c r="AH3" s="17" cm="1">
         <f t="array" ref="AH3">LOOKUP(2,1/(ISNUMBER(C3:AG3)),C3:AG3)</f>
-        <v>17885</v>
+        <v>15391</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.4">
@@ -7901,8 +7963,12 @@
       <c r="E4" s="13">
         <v>7736</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="13">
+        <v>7493</v>
+      </c>
+      <c r="G4" s="13">
+        <v>9106</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -7931,7 +7997,7 @@
       <c r="AG4" s="14"/>
       <c r="AH4" s="17" cm="1">
         <f t="array" ref="AH4">LOOKUP(2,1/(ISNUMBER(C4:AG4)),C4:AG4)</f>
-        <v>7736</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.4">
@@ -7950,8 +8016,12 @@
       <c r="E5" s="13">
         <v>8418</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="13">
+        <v>6660</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5740</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -7980,7 +8050,7 @@
       <c r="AG5" s="14"/>
       <c r="AH5" s="17" cm="1">
         <f t="array" ref="AH5">LOOKUP(2,1/(ISNUMBER(C5:AG5)),C5:AG5)</f>
-        <v>8418</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
@@ -7999,8 +8069,12 @@
       <c r="E6" s="13">
         <v>5842</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="13">
+        <v>7425</v>
+      </c>
+      <c r="G6" s="13">
+        <v>7091</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -8029,7 +8103,7 @@
       <c r="AG6" s="14"/>
       <c r="AH6" s="17" cm="1">
         <f t="array" ref="AH6">LOOKUP(2,1/(ISNUMBER(C6:AG6)),C6:AG6)</f>
-        <v>5842</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
@@ -8048,8 +8122,12 @@
       <c r="E7" s="13">
         <v>6090</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="13">
+        <v>4936</v>
+      </c>
+      <c r="G7" s="13">
+        <v>6976</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -8078,7 +8156,7 @@
       <c r="AG7" s="14"/>
       <c r="AH7" s="17" cm="1">
         <f t="array" ref="AH7">LOOKUP(2,1/(ISNUMBER(C7:AG7)),C7:AG7)</f>
-        <v>6090</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">
@@ -8097,8 +8175,12 @@
       <c r="E8" s="13">
         <v>10333</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="13">
+        <v>9222</v>
+      </c>
+      <c r="G8" s="13">
+        <v>9135</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -8127,7 +8209,7 @@
       <c r="AG8" s="14"/>
       <c r="AH8" s="17" cm="1">
         <f t="array" ref="AH8">LOOKUP(2,1/(ISNUMBER(C8:AG8)),C8:AG8)</f>
-        <v>10333</v>
+        <v>9135</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.4">
@@ -8191,8 +8273,12 @@
       <c r="E10" s="13">
         <v>2463</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="13">
+        <v>2463</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2463</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -8240,8 +8326,12 @@
       <c r="E11" s="13">
         <v>1783</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="13">
+        <v>1745</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1888</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -8270,7 +8360,7 @@
       <c r="AG11" s="14"/>
       <c r="AH11" s="17" cm="1">
         <f t="array" ref="AH11">LOOKUP(2,1/(ISNUMBER(C11:AG11)),C11:AG11)</f>
-        <v>1783</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.4">
